--- a/data/stock_symbols.xlsx
+++ b/data/stock_symbols.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,19 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{7EA226D1-E3A4-49CD-B52C-D89CC99BC389}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2186B-800F-45E5-9A22-C8109989A547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5870" yWindow="1290" windowWidth="28800" windowHeight="15460"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_symbols" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="341">
   <si>
     <t>Symbole</t>
   </si>
@@ -986,12 +994,69 @@
   </si>
   <si>
     <t>DE0005194062</t>
+  </si>
+  <si>
+    <t>BHP Billiton</t>
+  </si>
+  <si>
+    <t>BIL.F</t>
+  </si>
+  <si>
+    <t>Other Industrial Metals &amp; Mining</t>
+  </si>
+  <si>
+    <t>AU000000BHP4</t>
+  </si>
+  <si>
+    <t>Glencore</t>
+  </si>
+  <si>
+    <t>8GC.F</t>
+  </si>
+  <si>
+    <t>JE00B4T3BW64</t>
+  </si>
+  <si>
+    <t>GANFENG LITHIUM/Shs H Vtg 1.00</t>
+  </si>
+  <si>
+    <t>39EA.F</t>
+  </si>
+  <si>
+    <t>Chemicals</t>
+  </si>
+  <si>
+    <t>CNE1000031W9</t>
+  </si>
+  <si>
+    <t>CVLC.F</t>
+  </si>
+  <si>
+    <t>Vale</t>
+  </si>
+  <si>
+    <t>BRZ</t>
+  </si>
+  <si>
+    <t>BRVALEACNOR0</t>
+  </si>
+  <si>
+    <t>Nornickel</t>
+  </si>
+  <si>
+    <t>NNIC.F</t>
+  </si>
+  <si>
+    <t>RUS</t>
+  </si>
+  <si>
+    <t>RU0007288411</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1836,11 +1901,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="B90" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1931,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="H3" s="1" t="str">
-        <f t="shared" ref="H3:H66" si="0">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A3,"/profile?p=",A3,)))</f>
+        <f t="shared" ref="H3:H70" si="0">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A3,"/profile?p=",A3,)))</f>
         <v>https://de.finance.yahoo.com/quote/ABJA.F/profile?p=ABJA.F</v>
       </c>
     </row>
@@ -2369,199 +2434,199 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>323</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
+        <v>322</v>
       </c>
       <c r="C20" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E20" t="s">
-        <v>267</v>
+        <v>324</v>
       </c>
       <c r="F20" t="s">
         <v>6</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>325</v>
       </c>
       <c r="H20" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/BTC-EUR/profile?p=BTC-EUR</v>
+        <v>https://de.finance.yahoo.com/quote/BIL.F/profile?p=BIL.F</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D21" t="s">
-        <v>243</v>
+        <v>261</v>
       </c>
       <c r="E21" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="F21" t="s">
         <v>6</v>
       </c>
       <c r="G21" t="s">
-        <v>60</v>
+        <v>267</v>
       </c>
       <c r="H21" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/PCE1.F/profile?p=PCE1.F</v>
+        <v>https://de.finance.yahoo.com/quote/BTC-EUR/profile?p=BTC-EUR</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>271</v>
       </c>
       <c r="D22" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="F22" t="s">
         <v>6</v>
       </c>
       <c r="G22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="H22" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F</v>
+        <v>https://de.finance.yahoo.com/quote/PCE1.F/profile?p=PCE1.F</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C23" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="D23" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="E23" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="F23" t="s">
         <v>6</v>
       </c>
       <c r="G23" t="s">
-        <v>320</v>
+        <v>63</v>
       </c>
       <c r="H23" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F</v>
+        <v>https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C24" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="D24" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E24" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
         <v>6</v>
       </c>
       <c r="G24" t="s">
-        <v>68</v>
+        <v>320</v>
       </c>
       <c r="H24" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F</v>
+        <v>https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
         <v>271</v>
       </c>
       <c r="D25" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E25" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="F25" t="s">
         <v>6</v>
       </c>
       <c r="G25" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H25" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F</v>
+        <v>https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C26" t="s">
         <v>271</v>
       </c>
       <c r="D26" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="F26" t="s">
         <v>6</v>
       </c>
       <c r="G26" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="H26" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F</v>
+        <v>https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C27" t="s">
         <v>271</v>
@@ -2570,565 +2635,565 @@
         <v>248</v>
       </c>
       <c r="E27" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="F27" t="s">
         <v>6</v>
       </c>
       <c r="G27" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H27" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F</v>
+        <v>https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C28" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D28" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="E28" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F28" t="s">
         <v>6</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
+        <v>77</v>
       </c>
       <c r="H28" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI</v>
+        <v>https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C29" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="D29" t="s">
-        <v>248</v>
+        <v>266</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="F29" t="s">
         <v>6</v>
       </c>
       <c r="G29" t="s">
-        <v>82</v>
+        <v>267</v>
       </c>
       <c r="H29" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F</v>
+        <v>https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C30" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="D30" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F30" t="s">
         <v>6</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H30" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F</v>
+        <v>https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B31" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C31" t="s">
         <v>271</v>
       </c>
       <c r="D31" t="s">
-        <v>266</v>
+        <v>241</v>
       </c>
       <c r="E31" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F31" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>85</v>
       </c>
       <c r="H31" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI</v>
+        <v>https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B32" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D32" t="s">
-        <v>234</v>
+        <v>266</v>
       </c>
       <c r="E32" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="F32" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s">
-        <v>91</v>
+        <v>267</v>
       </c>
       <c r="H32" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F</v>
+        <v>https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C33" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D33" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E33" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
       <c r="F33" t="s">
         <v>6</v>
       </c>
       <c r="G33" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F</v>
+        <v>https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C34" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D34" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E34" t="s">
-        <v>235</v>
+        <v>260</v>
       </c>
       <c r="F34" t="s">
         <v>6</v>
       </c>
       <c r="G34" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="H34" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F</v>
+        <v>https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="D35" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E35" t="s">
-        <v>285</v>
+        <v>235</v>
       </c>
       <c r="F35" t="s">
         <v>6</v>
       </c>
       <c r="G35" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H35" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F</v>
+        <v>https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D36" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E36" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F36" t="s">
         <v>6</v>
       </c>
       <c r="G36" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H36" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F</v>
+        <v>https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B37" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C37" t="s">
         <v>275</v>
       </c>
       <c r="D37" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="E37" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F37" t="s">
         <v>6</v>
       </c>
       <c r="G37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="H37" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F</v>
+        <v>https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>107</v>
+        <v>330</v>
       </c>
       <c r="B38" t="s">
-        <v>108</v>
+        <v>329</v>
       </c>
       <c r="C38" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="D38" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="E38" t="s">
-        <v>288</v>
+        <v>331</v>
       </c>
       <c r="F38" t="s">
         <v>6</v>
       </c>
       <c r="G38" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="H38" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F</v>
+        <v>https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B39" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C39" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="D39" t="s">
-        <v>289</v>
+        <v>240</v>
       </c>
       <c r="E39" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="F39" t="s">
-        <v>88</v>
+        <v>6</v>
       </c>
       <c r="G39" t="s">
-        <v>267</v>
+        <v>106</v>
       </c>
       <c r="H39" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F</v>
+        <v>https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C40" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D40" t="s">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="E40" t="s">
-        <v>250</v>
+        <v>288</v>
       </c>
       <c r="F40" t="s">
         <v>6</v>
       </c>
       <c r="G40" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H40" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F</v>
+        <v>https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>327</v>
       </c>
       <c r="B41" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
       <c r="C41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D41" t="s">
         <v>258</v>
       </c>
       <c r="E41" t="s">
-        <v>290</v>
+        <v>324</v>
       </c>
       <c r="F41" t="s">
         <v>6</v>
       </c>
       <c r="G41" t="s">
-        <v>115</v>
+        <v>328</v>
       </c>
       <c r="H41" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F</v>
+        <v>https://de.finance.yahoo.com/quote/8GC.F/profile?p=8GC.F</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D42" t="s">
-        <v>248</v>
+        <v>289</v>
       </c>
       <c r="E42" t="s">
-        <v>249</v>
+        <v>267</v>
       </c>
       <c r="F42" t="s">
-        <v>6</v>
+        <v>88</v>
       </c>
       <c r="G42" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="H42" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F</v>
+        <v>https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="D43" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E43" t="s">
-        <v>317</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
         <v>6</v>
       </c>
       <c r="G43" t="s">
-        <v>121</v>
+        <v>318</v>
       </c>
       <c r="H43" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F</v>
+        <v>https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D44" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E44" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F44" t="s">
         <v>6</v>
       </c>
       <c r="G44" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="H44" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F</v>
+        <v>https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="C45" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="D45" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="E45" t="s">
-        <v>292</v>
+        <v>249</v>
       </c>
       <c r="F45" t="s">
         <v>6</v>
       </c>
       <c r="G45" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="H45" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F</v>
+        <v>https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="B46" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="C46" t="s">
-        <v>267</v>
+        <v>283</v>
       </c>
       <c r="D46" t="s">
-        <v>127</v>
+        <v>248</v>
       </c>
       <c r="E46" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="F46" t="s">
         <v>6</v>
       </c>
       <c r="G46" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
       <c r="H46" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F</v>
+        <v>https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C47" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D47" t="s">
-        <v>127</v>
+        <v>263</v>
       </c>
       <c r="E47" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F47" t="s">
         <v>6</v>
       </c>
       <c r="G47" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="H47" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/URTH/profile?p=URTH</v>
+        <v>https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
         <v>267</v>
@@ -3137,268 +3202,268 @@
         <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="F48" t="s">
         <v>6</v>
       </c>
       <c r="G48" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H48" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F</v>
+        <v>https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="B49" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C49" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="D49" t="s">
-        <v>243</v>
+        <v>127</v>
       </c>
       <c r="E49" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="F49" t="s">
         <v>6</v>
       </c>
       <c r="G49" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="H49" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F</v>
+        <v>https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="B50" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="C50" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="D50" t="s">
-        <v>263</v>
+        <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="F50" t="s">
         <v>6</v>
       </c>
       <c r="G50" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H50" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F</v>
+        <v>https://de.finance.yahoo.com/quote/URTH/profile?p=URTH</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C51" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="D51" t="s">
-        <v>234</v>
+        <v>127</v>
       </c>
       <c r="E51" t="s">
-        <v>235</v>
+        <v>293</v>
       </c>
       <c r="F51" t="s">
         <v>6</v>
       </c>
       <c r="G51" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="H51" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F</v>
+        <v>https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="C52" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="D52" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="F52" t="s">
         <v>6</v>
       </c>
       <c r="G52" t="s">
-        <v>316</v>
+        <v>140</v>
       </c>
       <c r="H52" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F</v>
+        <v>https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="C53" t="s">
         <v>271</v>
       </c>
       <c r="D53" t="s">
-        <v>295</v>
+        <v>263</v>
       </c>
       <c r="E53" t="s">
-        <v>296</v>
+        <v>264</v>
       </c>
       <c r="F53" t="s">
         <v>6</v>
       </c>
       <c r="G53" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="H53" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F</v>
+        <v>https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B54" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C54" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D54" t="s">
-        <v>252</v>
+        <v>234</v>
       </c>
       <c r="E54" t="s">
-        <v>297</v>
+        <v>235</v>
       </c>
       <c r="F54" t="s">
         <v>6</v>
       </c>
       <c r="G54" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="H54" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F</v>
+        <v>https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B55" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C55" t="s">
-        <v>271</v>
+        <v>294</v>
       </c>
       <c r="D55" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="E55" t="s">
-        <v>298</v>
+        <v>253</v>
       </c>
       <c r="F55" t="s">
         <v>6</v>
       </c>
       <c r="G55" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H55" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F</v>
+        <v>https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B56" t="s">
-        <v>299</v>
+        <v>150</v>
       </c>
       <c r="C56" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D56" t="s">
-        <v>248</v>
+        <v>295</v>
       </c>
       <c r="E56" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="F56" t="s">
         <v>6</v>
       </c>
       <c r="G56" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="H56" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F</v>
+        <v>https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C57" t="s">
         <v>271</v>
       </c>
       <c r="D57" t="s">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="E57" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F57" t="s">
         <v>6</v>
       </c>
       <c r="G57" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="H57" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F</v>
+        <v>https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C58" t="s">
         <v>271</v>
@@ -3407,136 +3472,136 @@
         <v>234</v>
       </c>
       <c r="E58" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="F58" t="s">
         <v>6</v>
       </c>
       <c r="G58" t="s">
-        <v>164</v>
+        <v>315</v>
       </c>
       <c r="H58" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F</v>
+        <v>https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>299</v>
       </c>
       <c r="C59" t="s">
         <v>274</v>
       </c>
       <c r="D59" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E59" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="F59" t="s">
         <v>6</v>
       </c>
       <c r="G59" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="H59" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F</v>
+        <v>https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="C60" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="D60" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="E60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F60" t="s">
         <v>6</v>
       </c>
       <c r="G60" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="H60" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F</v>
+        <v>https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>338</v>
       </c>
       <c r="B61" t="s">
-        <v>172</v>
+        <v>337</v>
       </c>
       <c r="C61" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="D61" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="E61" t="s">
-        <v>302</v>
+        <v>324</v>
       </c>
       <c r="F61" t="s">
         <v>6</v>
       </c>
       <c r="G61" t="s">
-        <v>173</v>
+        <v>340</v>
       </c>
       <c r="H61" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F</v>
+        <v>https://de.finance.yahoo.com/quote/NNIC.F/profile?p=NNIC.F</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="C62" t="s">
-        <v>303</v>
+        <v>271</v>
       </c>
       <c r="D62" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>238</v>
       </c>
       <c r="F62" t="s">
         <v>6</v>
       </c>
       <c r="G62" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H62" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F</v>
+        <v>https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="B63" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C63" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="D63" t="s">
         <v>263</v>
@@ -3548,522 +3613,657 @@
         <v>6</v>
       </c>
       <c r="G63" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="H63" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F</v>
+        <v>https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="B64" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C64" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="D64" t="s">
-        <v>248</v>
+        <v>263</v>
       </c>
       <c r="E64" t="s">
-        <v>260</v>
+        <v>301</v>
       </c>
       <c r="F64" t="s">
         <v>6</v>
       </c>
       <c r="G64" t="s">
-        <v>182</v>
+        <v>170</v>
       </c>
       <c r="H64" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F</v>
+        <v>https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="B65" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D65" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="E65" t="s">
-        <v>264</v>
+        <v>302</v>
       </c>
       <c r="F65" t="s">
         <v>6</v>
       </c>
       <c r="G65" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="H65" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F</v>
+        <v>https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="B66" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D66" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>268</v>
       </c>
       <c r="F66" t="s">
         <v>6</v>
       </c>
       <c r="G66" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="H66" s="1" t="str">
         <f t="shared" si="0"/>
-        <v>https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F</v>
+        <v>https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="B67" t="s">
-        <v>190</v>
+        <v>178</v>
       </c>
       <c r="C67" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D67" t="s">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E67" t="s">
-        <v>257</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s">
         <v>6</v>
       </c>
       <c r="G67" t="s">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="H67" s="1" t="str">
-        <f t="shared" ref="H67:H82" si="1">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A67,"/profile?p=",A67,)))</f>
-        <v>https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>180</v>
+      </c>
+      <c r="B68" t="s">
+        <v>181</v>
+      </c>
+      <c r="C68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D68" t="s">
+        <v>248</v>
+      </c>
+      <c r="E68" t="s">
+        <v>260</v>
+      </c>
+      <c r="F68" t="s">
+        <v>6</v>
+      </c>
+      <c r="G68" t="s">
+        <v>182</v>
+      </c>
+      <c r="H68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>183</v>
+      </c>
+      <c r="B69" t="s">
+        <v>184</v>
+      </c>
+      <c r="C69" t="s">
+        <v>274</v>
+      </c>
+      <c r="D69" t="s">
+        <v>263</v>
+      </c>
+      <c r="E69" t="s">
+        <v>264</v>
+      </c>
+      <c r="F69" t="s">
+        <v>6</v>
+      </c>
+      <c r="G69" t="s">
+        <v>185</v>
+      </c>
+      <c r="H69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>186</v>
+      </c>
+      <c r="B70" t="s">
+        <v>187</v>
+      </c>
+      <c r="C70" t="s">
+        <v>305</v>
+      </c>
+      <c r="D70" t="s">
+        <v>234</v>
+      </c>
+      <c r="E70" t="s">
+        <v>304</v>
+      </c>
+      <c r="F70" t="s">
+        <v>6</v>
+      </c>
+      <c r="G70" t="s">
+        <v>188</v>
+      </c>
+      <c r="H70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>189</v>
+      </c>
+      <c r="B71" t="s">
+        <v>190</v>
+      </c>
+      <c r="C71" t="s">
+        <v>275</v>
+      </c>
+      <c r="D71" t="s">
+        <v>252</v>
+      </c>
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71" t="s">
+        <v>6</v>
+      </c>
+      <c r="G71" t="s">
+        <v>191</v>
+      </c>
+      <c r="H71" s="1" t="str">
+        <f t="shared" ref="H71:H87" si="1">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A71,"/profile?p=",A71,)))</f>
+        <v>https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
         <v>192</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B72" t="s">
         <v>193</v>
       </c>
-      <c r="C68" t="s">
+      <c r="C72" t="s">
         <v>267</v>
       </c>
-      <c r="D68" t="s">
+      <c r="D72" t="s">
         <v>289</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E72" t="s">
         <v>267</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F72" t="s">
         <v>88</v>
       </c>
-      <c r="G68" t="s">
+      <c r="G72" t="s">
         <v>267</v>
       </c>
-      <c r="H68" s="1" t="str">
+      <c r="H72" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/SI=F/profile?p=SI=F</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>194</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B73" t="s">
         <v>195</v>
       </c>
-      <c r="C69" t="s">
+      <c r="C73" t="s">
         <v>275</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D73" t="s">
         <v>252</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E73" t="s">
         <v>306</v>
       </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" t="s">
+      <c r="F73" t="s">
+        <v>6</v>
+      </c>
+      <c r="G73" t="s">
         <v>196</v>
       </c>
-      <c r="H69" s="1" t="str">
+      <c r="H73" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/YSN.F/profile?p=YSN.F</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>197</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B74" t="s">
         <v>198</v>
       </c>
-      <c r="C70" t="s">
+      <c r="C74" t="s">
         <v>271</v>
       </c>
-      <c r="D70" t="s">
+      <c r="D74" t="s">
         <v>252</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E74" t="s">
         <v>257</v>
       </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" t="s">
+      <c r="F74" t="s">
+        <v>6</v>
+      </c>
+      <c r="G74" t="s">
         <v>199</v>
       </c>
-      <c r="H70" s="1" t="str">
+      <c r="H74" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/4S0.F/profile?p=4S0.F</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
         <v>200</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B75" t="s">
         <v>201</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C75" t="s">
         <v>283</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D75" t="s">
         <v>234</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E75" t="s">
         <v>307</v>
       </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
+      <c r="F75" t="s">
+        <v>6</v>
+      </c>
+      <c r="G75" t="s">
         <v>314</v>
       </c>
-      <c r="H71" s="1" t="str">
+      <c r="H75" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/SKNB.F/profile?p=SKNB.F</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
         <v>202</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B76" t="s">
         <v>203</v>
       </c>
-      <c r="C72" t="s">
+      <c r="C76" t="s">
         <v>309</v>
       </c>
-      <c r="D72" t="s">
+      <c r="D76" t="s">
         <v>241</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E76" t="s">
         <v>308</v>
       </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
+      <c r="F76" t="s">
+        <v>6</v>
+      </c>
+      <c r="G76" t="s">
         <v>204</v>
       </c>
-      <c r="H72" s="1" t="str">
+      <c r="H76" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/R6C.F/profile?p=R6C.F</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
         <v>205</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B77" t="s">
         <v>206</v>
       </c>
-      <c r="C73" t="s">
+      <c r="C77" t="s">
         <v>271</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D77" t="s">
         <v>252</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E77" t="s">
         <v>302</v>
       </c>
-      <c r="F73" t="s">
-        <v>6</v>
-      </c>
-      <c r="G73" t="s">
+      <c r="F77" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" t="s">
         <v>207</v>
       </c>
-      <c r="H73" s="1" t="str">
+      <c r="H77" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/AWM.F/profile?p=AWM.F</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
         <v>208</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B78" t="s">
         <v>209</v>
       </c>
-      <c r="C74" t="s">
+      <c r="C78" t="s">
         <v>309</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D78" t="s">
         <v>245</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E78" t="s">
         <v>246</v>
       </c>
-      <c r="F74" t="s">
-        <v>6</v>
-      </c>
-      <c r="G74" t="s">
+      <c r="F78" t="s">
+        <v>6</v>
+      </c>
+      <c r="G78" t="s">
         <v>313</v>
       </c>
-      <c r="H74" s="1" t="str">
+      <c r="H78" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" t="s">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
         <v>210</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B79" t="s">
         <v>211</v>
       </c>
-      <c r="C75" t="s">
+      <c r="C79" t="s">
         <v>310</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D79" t="s">
         <v>245</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E79" t="s">
         <v>246</v>
       </c>
-      <c r="F75" t="s">
-        <v>6</v>
-      </c>
-      <c r="G75" t="s">
+      <c r="F79" t="s">
+        <v>6</v>
+      </c>
+      <c r="G79" t="s">
         <v>212</v>
       </c>
-      <c r="H75" s="1" t="str">
+      <c r="H79" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/NNND.F/profile?p=NNND.F</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
         <v>213</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B80" t="s">
         <v>214</v>
       </c>
-      <c r="C76" t="s">
+      <c r="C80" t="s">
         <v>271</v>
       </c>
-      <c r="D76" t="s">
+      <c r="D80" t="s">
         <v>243</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E80" t="s">
         <v>288</v>
       </c>
-      <c r="F76" t="s">
-        <v>6</v>
-      </c>
-      <c r="G76" t="s">
+      <c r="F80" t="s">
+        <v>6</v>
+      </c>
+      <c r="G80" t="s">
         <v>215</v>
       </c>
-      <c r="H76" s="1" t="str">
+      <c r="H80" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/TL0.F/profile?p=TL0.F</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" t="s">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
         <v>216</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B81" t="s">
         <v>217</v>
       </c>
-      <c r="C77" t="s">
+      <c r="C81" t="s">
         <v>271</v>
       </c>
-      <c r="D77" t="s">
+      <c r="D81" t="s">
         <v>248</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E81" t="s">
         <v>254</v>
       </c>
-      <c r="F77" t="s">
-        <v>6</v>
-      </c>
-      <c r="G77" t="s">
+      <c r="F81" t="s">
+        <v>6</v>
+      </c>
+      <c r="G81" t="s">
         <v>218</v>
       </c>
-      <c r="H77" s="1" t="str">
+      <c r="H81" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/TF7A.F/profile?p=TF7A.F</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" t="s">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
         <v>219</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B82" t="s">
         <v>220</v>
       </c>
-      <c r="C78" t="s">
+      <c r="C82" t="s">
         <v>309</v>
       </c>
-      <c r="D78" t="s">
+      <c r="D82" t="s">
         <v>248</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E82" t="s">
         <v>260</v>
       </c>
-      <c r="F78" t="s">
-        <v>6</v>
-      </c>
-      <c r="G78" t="s">
+      <c r="F82" t="s">
+        <v>6</v>
+      </c>
+      <c r="G82" t="s">
         <v>221</v>
       </c>
-      <c r="H78" s="1" t="str">
+      <c r="H82" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" t="s">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>333</v>
+      </c>
+      <c r="B83" t="s">
+        <v>334</v>
+      </c>
+      <c r="C83" t="s">
+        <v>335</v>
+      </c>
+      <c r="D83" t="s">
+        <v>258</v>
+      </c>
+      <c r="E83" t="s">
+        <v>324</v>
+      </c>
+      <c r="F83" t="s">
+        <v>6</v>
+      </c>
+      <c r="G83" t="s">
+        <v>336</v>
+      </c>
+      <c r="H83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
         <v>222</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B84" t="s">
         <v>223</v>
       </c>
-      <c r="C79" t="s">
+      <c r="C84" t="s">
         <v>271</v>
       </c>
-      <c r="D79" t="s">
+      <c r="D84" t="s">
         <v>295</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E84" t="s">
         <v>296</v>
       </c>
-      <c r="F79" t="s">
-        <v>6</v>
-      </c>
-      <c r="G79" t="s">
+      <c r="F84" t="s">
+        <v>6</v>
+      </c>
+      <c r="G84" t="s">
         <v>224</v>
       </c>
-      <c r="H79" s="1" t="str">
+      <c r="H84" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" t="s">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
         <v>225</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B85" t="s">
         <v>226</v>
       </c>
-      <c r="C80" t="s">
+      <c r="C85" t="s">
         <v>271</v>
       </c>
-      <c r="D80" t="s">
+      <c r="D85" t="s">
         <v>245</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E85" t="s">
         <v>311</v>
       </c>
-      <c r="F80" t="s">
-        <v>6</v>
-      </c>
-      <c r="G80" t="s">
+      <c r="F85" t="s">
+        <v>6</v>
+      </c>
+      <c r="G85" t="s">
         <v>227</v>
       </c>
-      <c r="H80" s="1" t="str">
+      <c r="H85" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/WDP.F/profile?p=WDP.F</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" t="s">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
         <v>228</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B86" t="s">
         <v>229</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C86" t="s">
         <v>271</v>
       </c>
-      <c r="D81" t="s">
+      <c r="D86" t="s">
         <v>243</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E86" t="s">
         <v>244</v>
       </c>
-      <c r="F81" t="s">
-        <v>6</v>
-      </c>
-      <c r="G81" t="s">
+      <c r="F86" t="s">
+        <v>6</v>
+      </c>
+      <c r="G86" t="s">
         <v>230</v>
       </c>
-      <c r="H81" s="1" t="str">
+      <c r="H86" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/1WF.F/profile?p=1WF.F</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" t="s">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
         <v>231</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B87" t="s">
         <v>232</v>
       </c>
-      <c r="C82" t="s">
+      <c r="C87" t="s">
         <v>275</v>
       </c>
-      <c r="D82" t="s">
+      <c r="D87" t="s">
         <v>252</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E87" t="s">
         <v>257</v>
       </c>
-      <c r="F82" t="s">
-        <v>6</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="F87" t="s">
+        <v>6</v>
+      </c>
+      <c r="G87" t="s">
         <v>312</v>
       </c>
-      <c r="H82" s="1" t="str">
+      <c r="H87" s="1" t="str">
         <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/WDI.F/profile?p=WDI.F</v>
       </c>

--- a/data/stock_symbols.xlsx
+++ b/data/stock_symbols.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF2186B-800F-45E5-9A22-C8109989A547}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D68C26-9261-45BD-AD6E-939AC09A9B20}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="3500" windowWidth="24100" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="stock_symbols" sheetId="1" r:id="rId1"/>
@@ -1904,8 +1904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B90" sqref="B90"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/data/stock_symbols.xlsx
+++ b/data/stock_symbols.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C69D94CE-0FBF-4106-8D65-8804B9D806EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341BED4-C084-474E-BF4A-A78B3871A755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="399">
   <si>
     <t>Symbole</t>
   </si>
@@ -1205,6 +1205,18 @@
   </si>
   <si>
     <t>HRPK.F</t>
+  </si>
+  <si>
+    <t>BYD Company Limited</t>
+  </si>
+  <si>
+    <t>BY6.F</t>
+  </si>
+  <si>
+    <t>CNE100000296</t>
+  </si>
+  <si>
+    <t>Just Eat Takeaway.com N.V.</t>
   </si>
 </sst>
 </file>
@@ -2439,10 +2451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="A49" sqref="A49:XFD49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2508,7 +2520,7 @@
         <v>14</v>
       </c>
       <c r="H2" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A2,"/profile?p=",A2)))</f>
+        <f t="shared" ref="H2:H34" si="0">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A2,"/profile?p=",A2)))</f>
         <v>https://de.finance.yahoo.com/quote/MMM.F/profile?p=MMM.F</v>
       </c>
     </row>
@@ -2535,7 +2547,7 @@
         <v>386</v>
       </c>
       <c r="H3" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A3,"/profile?p=",A3)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/HRPK.F/profile?p=HRPK.F</v>
       </c>
     </row>
@@ -2562,7 +2574,7 @@
         <v>19</v>
       </c>
       <c r="H4" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A4,"/profile?p=",A4)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/ABJA.F/profile?p=ABJA.F</v>
       </c>
     </row>
@@ -2589,7 +2601,7 @@
         <v>24</v>
       </c>
       <c r="H5" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A5,"/profile?p=",A5)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/AIR.F/profile?p=AIR.F</v>
       </c>
     </row>
@@ -2616,7 +2628,7 @@
         <v>29</v>
       </c>
       <c r="H6" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A6,"/profile?p=",A6)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/ABA.F/profile?p=ABA.F</v>
       </c>
     </row>
@@ -2643,7 +2655,7 @@
         <v>35</v>
       </c>
       <c r="H7" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A7,"/profile?p=",A7)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/AQN/profile?p=AQN</v>
       </c>
     </row>
@@ -2670,7 +2682,7 @@
         <v>41</v>
       </c>
       <c r="H8" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A8,"/profile?p=",A8)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/AHLA.F/profile?p=AHLA.F</v>
       </c>
     </row>
@@ -2697,7 +2709,7 @@
         <v>46</v>
       </c>
       <c r="H9" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A9,"/profile?p=",A9)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/ABEA.F/profile?p=ABEA.F</v>
       </c>
     </row>
@@ -2724,7 +2736,7 @@
         <v>49</v>
       </c>
       <c r="H10" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A10,"/profile?p=",A10)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/AMZ.F/profile?p=AMZ.F</v>
       </c>
     </row>
@@ -2751,7 +2763,7 @@
         <v>53</v>
       </c>
       <c r="H11" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A11,"/profile?p=",A11)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/AWC.F/profile?p=AWC.F</v>
       </c>
     </row>
@@ -2778,7 +2790,7 @@
         <v>59</v>
       </c>
       <c r="H12" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A12,"/profile?p=",A12)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/1NBA.F/profile?p=1NBA.F</v>
       </c>
     </row>
@@ -2805,7 +2817,7 @@
         <v>64</v>
       </c>
       <c r="H13" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A13,"/profile?p=",A13)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/DP4B.F/profile?p=DP4B.F</v>
       </c>
     </row>
@@ -2832,7 +2844,7 @@
         <v>69</v>
       </c>
       <c r="H14" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A14,"/profile?p=",A14)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/APC.F/profile?p=APC.F</v>
       </c>
     </row>
@@ -2859,7 +2871,7 @@
         <v>73</v>
       </c>
       <c r="H15" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A15,"/profile?p=",A15)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/ADM.F/profile?p=ADM.F</v>
       </c>
     </row>
@@ -2886,7 +2898,7 @@
         <v>77</v>
       </c>
       <c r="H16" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A16,"/profile?p=",A16)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/SOBA.F/profile?p=SOBA.F</v>
       </c>
     </row>
@@ -2913,7 +2925,7 @@
         <v>82</v>
       </c>
       <c r="H17" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A17,"/profile?p=",A17)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/59A.F/profile?p=59A.F</v>
       </c>
     </row>
@@ -2940,7 +2952,7 @@
         <v>87</v>
       </c>
       <c r="H18" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A18,"/profile?p=",A18)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/ABR.F/profile?p=ABR.F</v>
       </c>
     </row>
@@ -2967,7 +2979,7 @@
         <v>91</v>
       </c>
       <c r="H19" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A19,"/profile?p=",A19)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/BYW.F/profile?p=BYW.F</v>
       </c>
     </row>
@@ -2994,7 +3006,7 @@
         <v>95</v>
       </c>
       <c r="H20" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A20,"/profile?p=",A20)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/BEI.F/profile?p=BEI.F</v>
       </c>
     </row>
@@ -3021,7 +3033,7 @@
         <v>99</v>
       </c>
       <c r="H21" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A21,"/profile?p=",A21)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/BIL.F/profile?p=BIL.F</v>
       </c>
     </row>
@@ -3048,7 +3060,7 @@
         <v>102</v>
       </c>
       <c r="H22" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A22,"/profile?p=",A22)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/BTC-EUR/profile?p=BTC-EUR</v>
       </c>
     </row>
@@ -3075,7 +3087,7 @@
         <v>107</v>
       </c>
       <c r="H23" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A23,"/profile?p=",A23)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/PCE1.F/profile?p=PCE1.F</v>
       </c>
     </row>
@@ -3102,151 +3114,151 @@
         <v>112</v>
       </c>
       <c r="H24" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A24,"/profile?p=",A24)))</f>
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="H25" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/BY6.F/profile?p=BY6.F</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
         <v>374</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B26" s="4" t="s">
         <v>375</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D26" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>376</v>
       </c>
-      <c r="F25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G25" s="4" t="s">
+      <c r="F26" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" s="4" t="s">
         <v>377</v>
       </c>
-      <c r="H25" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A25,"/profile?p=",A25)))</f>
+      <c r="H26" s="3" t="str">
+        <f t="shared" si="0"/>
         <v>https://de.finance.yahoo.com/quote/3C1.F/profile?p=3C1.F</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A26,"/profile?p=",A26)))</f>
-        <v>https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="H27" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A27,"/profile?p=",A27)))</f>
-        <v>https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>344</v>
+        <v>121</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>346</v>
+        <v>67</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>347</v>
+        <v>81</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>348</v>
+        <v>122</v>
       </c>
       <c r="H28" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A28,"/profile?p=",A28)))</f>
-        <v>https://de.finance.yahoo.com/quote/CLIQ.F/profile?p=CLIQ.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>124</v>
+        <v>344</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>57</v>
+        <v>346</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="H29" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A29,"/profile?p=",A29)))</f>
-        <v>https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CLIQ.F/profile?p=CLIQ.F</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>10</v>
@@ -3255,219 +3267,219 @@
         <v>57</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="H30" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A30,"/profile?p=",A30)))</f>
-        <v>https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="H31" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A31,"/profile?p=",A31)))</f>
-        <v>https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>132</v>
+        <v>11</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="H32" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A32,"/profile?p=",A32)))</f>
-        <v>https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>135</v>
+        <v>27</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>57</v>
+        <v>132</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>137</v>
+        <v>102</v>
       </c>
       <c r="H33" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A33,"/profile?p=",A33)))</f>
-        <v>https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>140</v>
+        <v>57</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="H34" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A34,"/profile?p=",A34)))</f>
-        <v>https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F</v>
+        <f t="shared" si="0"/>
+        <v>https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>102</v>
+        <v>141</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H35" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A35,"/profile?p=",A35)))</f>
-        <v>https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI</v>
+        <f t="shared" ref="H35:H67" si="1">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A35,"/profile?p=",A35)))</f>
+        <v>https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>132</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>148</v>
+        <v>102</v>
       </c>
       <c r="H36" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A36,"/profile?p=",A36)))</f>
-        <v>https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>349</v>
+        <v>146</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>350</v>
+        <v>147</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>351</v>
+        <v>11</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="H37" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A37,"/profile?p=",A37)))</f>
-        <v>https://de.finance.yahoo.com/quote/CAP.F/profile?p=CAP.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="C38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>33</v>
       </c>
       <c r="E38" s="4" t="s">
@@ -3477,478 +3489,478 @@
         <v>13</v>
       </c>
       <c r="G38" s="4" t="s">
+        <v>351</v>
+      </c>
+      <c r="H38" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/CAP.F/profile?p=CAP.F</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G39" s="4" t="s">
         <v>380</v>
       </c>
-      <c r="H38" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A38,"/profile?p=",A38)))</f>
+      <c r="H39" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/EKT.F/profile?p=EKT.F</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="H39" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A39,"/profile?p=",A39)))</f>
-        <v>https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H40" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A40,"/profile?p=",A40)))</f>
-        <v>https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>10</v>
+        <v>155</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>159</v>
+        <v>12</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="H41" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A41,"/profile?p=",A41)))</f>
-        <v>https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H42" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A42,"/profile?p=",A42)))</f>
-        <v>https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="H43" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B44" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C44" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D44" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E44" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F43" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="F44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G44" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="H43" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A43,"/profile?p=",A43)))</f>
+      <c r="H44" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="4" t="s">
+    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="4" t="s">
         <v>364</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>365</v>
       </c>
-      <c r="C44" s="4" t="s">
+      <c r="C45" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="D44" s="4" t="s">
+      <c r="D45" s="4" t="s">
         <v>140</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E45" s="4" t="s">
         <v>303</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G44" s="4" t="s">
+      <c r="F45" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" s="4" t="s">
         <v>366</v>
       </c>
-      <c r="H44" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A44,"/profile?p=",A44)))</f>
+      <c r="H45" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/GAZ.F/profile?p=GAZ.F</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H45" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A45,"/profile?p=",A45)))</f>
-        <v>https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H46" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A46,"/profile?p=",A46)))</f>
-        <v>https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>98</v>
+        <v>175</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="H47" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A47,"/profile?p=",A47)))</f>
-        <v>https://de.finance.yahoo.com/quote/8GC.F/profile?p=8GC.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>181</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="H48" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A48,"/profile?p=",A48)))</f>
-        <v>https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/8GC.F/profile?p=8GC.F</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>183</v>
+        <v>86</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>27</v>
+        <v>102</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>11</v>
+        <v>181</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>184</v>
+        <v>102</v>
       </c>
       <c r="H49" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A49,"/profile?p=",A49)))</f>
-        <v>https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>85</v>
+        <v>11</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="H50" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A50,"/profile?p=",A50)))</f>
-        <v>https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="H51" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A51,"/profile?p=",A51)))</f>
-        <v>https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>194</v>
+        <v>58</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H52" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A52,"/profile?p=",A52)))</f>
-        <v>https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>110</v>
+        <v>57</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="H53" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A53,"/profile?p=",A53)))</f>
-        <v>https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>202</v>
+        <v>110</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="H54" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A54,"/profile?p=",A54)))</f>
-        <v>https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>206</v>
+      <c r="A55" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>202</v>
+        <v>44</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>207</v>
+        <v>45</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>208</v>
+        <v>310</v>
       </c>
       <c r="H55" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A55,"/profile?p=",A55)))</f>
-        <v>https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>102</v>
@@ -3957,25 +3969,25 @@
         <v>202</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="H56" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A56,"/profile?p=",A56)))</f>
-        <v>https://de.finance.yahoo.com/quote/URTH/profile?p=URTH</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>102</v>
@@ -3990,562 +4002,562 @@
         <v>13</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H57" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A57,"/profile?p=",A57)))</f>
-        <v>https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>39</v>
+        <v>202</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>40</v>
+        <v>207</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H58" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A58,"/profile?p=",A58)))</f>
-        <v>https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/URTH/profile?p=URTH</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>110</v>
+        <v>202</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H59" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A59,"/profile?p=",A59)))</f>
-        <v>https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H60" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A60,"/profile?p=",A60)))</f>
-        <v>https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H61" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="H62" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B63" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C61" s="2" t="s">
+      <c r="C63" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D63" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E63" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F61" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G61" s="2" t="s">
+      <c r="F63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G63" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="H61" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A61,"/profile?p=",A61)))</f>
+      <c r="H63" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="4" t="s">
+    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
         <v>370</v>
       </c>
-      <c r="B62" s="4" t="s">
+      <c r="B64" s="4" t="s">
         <v>371</v>
       </c>
-      <c r="C62" s="4" t="s">
+      <c r="C64" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D62" s="4" t="s">
+      <c r="D64" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E64" s="4" t="s">
         <v>373</v>
       </c>
-      <c r="F62" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G62" s="4" t="s">
+      <c r="F64" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G64" s="4" t="s">
         <v>372</v>
       </c>
-      <c r="H62" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A62,"/profile?p=",A62)))</f>
+      <c r="H64" s="3" t="str">
+        <f t="shared" si="1"/>
         <v>https://de.finance.yahoo.com/quote/LU2.F/profile?p=LU2.F</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B63" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="C63" s="4" t="s">
-        <v>268</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F63" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G63" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="H63" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A63,"/profile?p=",A63)))</f>
-        <v>https://de.finance.yahoo.com/quote/MOH.F/profile?p=MOH.F</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H64" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A64,"/profile?p=",A64)))</f>
-        <v>https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F</v>
       </c>
     </row>
     <row r="65" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="4" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>359</v>
-      </c>
-      <c r="F65" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="F65" s="4" t="s">
         <v>13</v>
       </c>
       <c r="G65" s="4" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="H65" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A65,"/profile?p=",A65)))</f>
-        <v>https://de.finance.yahoo.com/quote/MDO.F/profile?p=MDO.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/MOH.F/profile?p=MOH.F</v>
       </c>
     </row>
     <row r="66" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>67</v>
+        <v>230</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="H66" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A66,"/profile?p=",A66)))</f>
-        <v>https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="C67" s="2" t="s">
+      <c r="A67" s="4" t="s">
+        <v>357</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C67" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>239</v>
+      <c r="D67" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>359</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G67" s="2" t="s">
-        <v>240</v>
+      <c r="G67" s="4" t="s">
+        <v>356</v>
       </c>
       <c r="H67" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A67,"/profile?p=",A67)))</f>
-        <v>https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F</v>
+        <f t="shared" si="1"/>
+        <v>https://de.finance.yahoo.com/quote/MDO.F/profile?p=MDO.F</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>163</v>
+        <v>235</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H68" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A68,"/profile?p=",A68)))</f>
-        <v>https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F</v>
+        <f t="shared" ref="H68:H104" si="2">HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A68,"/profile?p=",A68)))</f>
+        <v>https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="H69" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A69,"/profile?p=",A69)))</f>
-        <v>https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>250</v>
+        <v>17</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="H70" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A70,"/profile?p=",A70)))</f>
-        <v>https://de.finance.yahoo.com/quote/NNIC.F/profile?p=NNIC.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>252</v>
+        <v>244</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>253</v>
+        <v>245</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="H71" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A71,"/profile?p=",A71)))</f>
-        <v>https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>110</v>
+        <v>85</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>111</v>
+        <v>98</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H72" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A72,"/profile?p=",A72)))</f>
-        <v>https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NNIC.F/profile?p=NNIC.F</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>260</v>
+        <v>23</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="H73" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A73,"/profile?p=",A73)))</f>
-        <v>https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>264</v>
+        <v>111</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="H74" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A74,"/profile?p=",A74)))</f>
-        <v>https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>268</v>
+        <v>62</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>136</v>
+        <v>260</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="H75" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A75,"/profile?p=",A75)))</f>
-        <v>https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F</v>
       </c>
     </row>
     <row r="76" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>111</v>
+        <v>264</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="H76" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A76,"/profile?p=",A76)))</f>
-        <v>https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F</v>
       </c>
     </row>
     <row r="77" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>10</v>
+        <v>268</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>57</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>94</v>
+        <v>136</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="H77" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A77,"/profile?p=",A77)))</f>
-        <v>https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F</v>
       </c>
     </row>
     <row r="78" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>110</v>
@@ -4557,130 +4569,130 @@
         <v>13</v>
       </c>
       <c r="G78" s="2" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="H78" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A78,"/profile?p=",A78)))</f>
-        <v>https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F</v>
       </c>
     </row>
     <row r="79" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="4" t="s">
-        <v>381</v>
-      </c>
-      <c r="B79" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="C79" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>171</v>
+      <c r="A79" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E79" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G79" s="4" t="s">
-        <v>383</v>
+      <c r="G79" s="2" t="s">
+        <v>275</v>
       </c>
       <c r="H79" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A79,"/profile?p=",A79)))</f>
-        <v>https://de.finance.yahoo.com/quote/RWE.F/profile?p=RWE.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F</v>
       </c>
     </row>
     <row r="80" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>281</v>
+        <v>17</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>11</v>
+        <v>110</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>282</v>
+        <v>111</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G80" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="H80" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A80,"/profile?p=",A80)))</f>
-        <v>https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C81" s="2" t="s">
+      <c r="A81" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="C81" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D81" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>81</v>
+      <c r="D81" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>171</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G81" s="2" t="s">
-        <v>286</v>
+      <c r="G81" s="4" t="s">
+        <v>383</v>
       </c>
       <c r="H81" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A81,"/profile?p=",A81)))</f>
-        <v>https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/RWE.F/profile?p=RWE.F</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>27</v>
+        <v>281</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G82" s="2" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="H82" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A82,"/profile?p=",A82)))</f>
-        <v>https://de.finance.yahoo.com/quote/YSN.F/profile?p=YSN.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>67</v>
@@ -4692,529 +4704,583 @@
         <v>13</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H83" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A83,"/profile?p=",A83)))</f>
-        <v>https://de.finance.yahoo.com/quote/4S0.F/profile?p=4S0.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>300</v>
+        <v>289</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>301</v>
+        <v>290</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>302</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>140</v>
+        <v>67</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G84" s="2" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
       <c r="H84" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A84,"/profile?p=",A84)))</f>
-        <v>https://de.finance.yahoo.com/quote/R6C.F/profile?p=R6C.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/YSN.F/profile?p=YSN.F</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>287</v>
+        <v>293</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>102</v>
+        <v>10</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>181</v>
+        <v>67</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>145</v>
+        <v>13</v>
       </c>
       <c r="G85" s="2" t="s">
-        <v>102</v>
+        <v>295</v>
       </c>
       <c r="H85" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A85,"/profile?p=",A85)))</f>
-        <v>https://de.finance.yahoo.com/quote/SI=F/profile?p=SI=F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/4S0.F/profile?p=4S0.F</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>151</v>
+        <v>302</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G86" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="H86" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A86,"/profile?p=",A86)))</f>
-        <v>https://de.finance.yahoo.com/quote/SKNB.F/profile?p=SKNB.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/R6C.F/profile?p=R6C.F</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>305</v>
+        <v>287</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>306</v>
+        <v>288</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>10</v>
+        <v>102</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>67</v>
+        <v>181</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>264</v>
+        <v>102</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>13</v>
+        <v>145</v>
       </c>
       <c r="G87" s="2" t="s">
-        <v>307</v>
+        <v>102</v>
       </c>
       <c r="H87" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A87,"/profile?p=",A87)))</f>
-        <v>https://de.finance.yahoo.com/quote/AWM.F/profile?p=AWM.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/SI=F/profile?p=SI=F</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>302</v>
+        <v>151</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>45</v>
+        <v>298</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G88" s="2" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="H88" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A88,"/profile?p=",A88)))</f>
-        <v>https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/SKNB.F/profile?p=SKNB.F</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>313</v>
+        <v>10</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>45</v>
+        <v>264</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="H89" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A89,"/profile?p=",A89)))</f>
-        <v>https://de.finance.yahoo.com/quote/NNND.F/profile?p=NNND.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/AWM.F/profile?p=AWM.F</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>10</v>
+        <v>302</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>175</v>
+        <v>45</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H90" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A90,"/profile?p=",A90)))</f>
-        <v>https://de.finance.yahoo.com/quote/TL0.F/profile?p=TL0.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>10</v>
+        <v>313</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G91" s="2" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="H91" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A91,"/profile?p=",A91)))</f>
-        <v>https://de.finance.yahoo.com/quote/TF7A.F/profile?p=TF7A.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/NNND.F/profile?p=NNND.F</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>302</v>
+        <v>10</v>
       </c>
       <c r="D92" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="H92" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/TL0.F/profile?p=TL0.F</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E92" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="H92" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A92,"/profile?p=",A92)))</f>
-        <v>https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="B93" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>362</v>
+      <c r="E93" s="2" t="s">
+        <v>72</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G93" s="4" t="s">
-        <v>363</v>
+      <c r="G93" s="2" t="s">
+        <v>320</v>
       </c>
       <c r="H93" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A93,"/profile?p=",A93)))</f>
-        <v>https://de.finance.yahoo.com/quote/UNH.F/profile?p=UNH.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/TF7A.F/profile?p=TF7A.F</v>
       </c>
     </row>
     <row r="94" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>326</v>
+        <v>302</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>85</v>
+        <v>57</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="H94" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A94,"/profile?p=",A94)))</f>
-        <v>https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F</v>
       </c>
     </row>
     <row r="95" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="C95" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="H95" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/UNH.F/profile?p=UNH.F</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="H96" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="4" t="s">
         <v>391</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B97" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C97" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D97" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E95" s="4" t="s">
+      <c r="E97" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F95" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G95" s="4" t="s">
+      <c r="F97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" s="4" t="s">
         <v>393</v>
       </c>
-      <c r="H95" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A95,"/profile?p=",A95)))</f>
+      <c r="H97" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>https://de.finance.yahoo.com/quote/VQT.F/profile?p=VQT.F</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="4" t="s">
+    <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
         <v>387</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B98" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>389</v>
       </c>
-      <c r="D96" s="4" t="s">
+      <c r="D98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E96" s="4" t="s">
+      <c r="E98" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="4" t="s">
+      <c r="F98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G98" s="4" t="s">
         <v>390</v>
       </c>
-      <c r="H96" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A96,"/profile?p=",A96)))</f>
+      <c r="H98" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>https://de.finance.yahoo.com/quote/VWS.F/profile?p=VWS.F</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="2" t="s">
+    <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B99" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="C97" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D97" s="2" t="s">
+      <c r="D99" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="E99" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="F97" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G97" s="2" t="s">
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="H97" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A97,"/profile?p=",A97)))</f>
+      <c r="H99" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="2" t="s">
-        <v>341</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>342</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G98" s="2" t="s">
-        <v>343</v>
-      </c>
-      <c r="H98" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A98,"/profile?p=",A98)))</f>
-        <v>https://de.finance.yahoo.com/quote/VOW3.F/profile?p=VOW3.F</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="B99" s="4" t="s">
-        <v>368</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="F99" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="H99" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A99,"/profile?p=",A99)))</f>
-        <v>https://de.finance.yahoo.com/quote/WMT.F/profile?p=WMT.F</v>
       </c>
     </row>
     <row r="100" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="H100" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/VOW3.F/profile?p=VOW3.F</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>368</v>
+      </c>
+      <c r="C101" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="D100" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G100" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="H100" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A100,"/profile?p=",A100)))</f>
-        <v>https://de.finance.yahoo.com/quote/WDP.F/profile?p=WDP.F</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="2" t="s">
-        <v>335</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>336</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D101" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>40</v>
+      <c r="D101" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G101" s="2" t="s">
-        <v>337</v>
+      <c r="G101" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="H101" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A101,"/profile?p=",A101)))</f>
-        <v>https://de.finance.yahoo.com/quote/1WF.F/profile?p=1WF.F</v>
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/WMT.F/profile?p=WMT.F</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="H102" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/WDP.F/profile?p=WDP.F</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="H103" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>https://de.finance.yahoo.com/quote/1WF.F/profile?p=1WF.F</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B104" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="C102" s="2" t="s">
+      <c r="C104" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D104" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="E102" s="2" t="s">
+      <c r="E104" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F102" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G102" s="2" t="s">
+      <c r="F104" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G104" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H102" s="3" t="str">
-        <f>HYPERLINK((CONCATENATE("https://de.finance.yahoo.com/quote/",A102,"/profile?p=",A102)))</f>
+      <c r="H104" s="3" t="str">
+        <f t="shared" si="2"/>
         <v>https://de.finance.yahoo.com/quote/WDI.F/profile?p=WDI.F</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H102">
-    <sortCondition ref="B2:B102"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H104">
+    <sortCondition ref="B2:B104"/>
   </sortState>
   <hyperlinks>
     <hyperlink ref="H2" r:id="rId1" display="https://de.finance.yahoo.com/quote/MMM.F/profile?p=MMM.F" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
@@ -5239,88 +5305,90 @@
     <hyperlink ref="H22" r:id="rId20" display="https://de.finance.yahoo.com/quote/BTC-EUR/profile?p=BTC-EUR" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
     <hyperlink ref="H23" r:id="rId21" display="https://de.finance.yahoo.com/quote/PCE1.F/profile?p=PCE1.F" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
     <hyperlink ref="H24" r:id="rId22" display="https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="H31" r:id="rId23" display="https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="H26" r:id="rId24" display="https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="H27" r:id="rId25" display="https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="H29" r:id="rId26" display="https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="H30" r:id="rId27" display="https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="H32" r:id="rId28" display="https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="H33" r:id="rId29" display="https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="H34" r:id="rId30" display="https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="H35" r:id="rId31" display="https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="H36" r:id="rId32" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="H39" r:id="rId33" display="https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="H40" r:id="rId34" display="https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="H41" r:id="rId35" display="https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="H42" r:id="rId36" display="https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="H43" r:id="rId37" display="https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="H45" r:id="rId38" display="https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="H46" r:id="rId39" display="https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="H47" r:id="rId40" display="https://de.finance.yahoo.com/quote/8GC.F/profile?p=8GC.F" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="H48" r:id="rId41" display="https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="H49" r:id="rId42" display="https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="H50" r:id="rId43" display="https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="H51" r:id="rId44" display="https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="H52" r:id="rId45" display="https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="H53" r:id="rId46" display="https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="H54" r:id="rId47" display="https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="H55" r:id="rId48" display="https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="H56" r:id="rId49" display="https://de.finance.yahoo.com/quote/URTH/profile?p=URTH" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="H57" r:id="rId50" display="https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="H58" r:id="rId51" display="https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="H59" r:id="rId52" display="https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="H60" r:id="rId53" display="https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="H61" r:id="rId54" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="H64" r:id="rId55" display="https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="H66" r:id="rId56" display="https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="H67" r:id="rId57" display="https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="H68" r:id="rId58" display="https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="H69" r:id="rId59" display="https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="H70" r:id="rId60" display="https://de.finance.yahoo.com/quote/NNIC.F/profile?p=NNIC.F" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="H71" r:id="rId61" display="https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="H72" r:id="rId62" display="https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="H73" r:id="rId63" display="https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="H74" r:id="rId64" display="https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="H75" r:id="rId65" display="https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="H76" r:id="rId66" display="https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="H77" r:id="rId67" display="https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="H78" r:id="rId68" display="https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="H80" r:id="rId69" display="https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="H81" r:id="rId70" display="https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="H85" r:id="rId71" display="https://de.finance.yahoo.com/quote/SI=F/profile?p=SI=F" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="H82" r:id="rId72" display="https://de.finance.yahoo.com/quote/YSN.F/profile?p=YSN.F" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="H83" r:id="rId73" display="https://de.finance.yahoo.com/quote/4S0.F/profile?p=4S0.F" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="H86" r:id="rId74" display="https://de.finance.yahoo.com/quote/SKNB.F/profile?p=SKNB.F" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="H84" r:id="rId75" display="https://de.finance.yahoo.com/quote/R6C.F/profile?p=R6C.F" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="H87" r:id="rId76" display="https://de.finance.yahoo.com/quote/AWM.F/profile?p=AWM.F" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="H88" r:id="rId77" display="https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="H89" r:id="rId78" display="https://de.finance.yahoo.com/quote/NNND.F/profile?p=NNND.F" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="H90" r:id="rId79" display="https://de.finance.yahoo.com/quote/TL0.F/profile?p=TL0.F" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="H91" r:id="rId80" display="https://de.finance.yahoo.com/quote/TF7A.F/profile?p=TF7A.F" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="H92" r:id="rId81" display="https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="H94" r:id="rId82" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="H97" r:id="rId83" display="https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="H100" r:id="rId84" display="https://de.finance.yahoo.com/quote/WDP.F/profile?p=WDP.F" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="H101" r:id="rId85" display="https://de.finance.yahoo.com/quote/1WF.F/profile?p=1WF.F" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="H102" r:id="rId86" display="https://de.finance.yahoo.com/quote/WDI.F/profile?p=WDI.F" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="H98" r:id="rId87" display="https://de.finance.yahoo.com/quote/VOW3.F/profile?p=VOW3.F" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
-    <hyperlink ref="H28" r:id="rId88" display="https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F" xr:uid="{B93CD419-7850-4245-919C-1A4A4B890609}"/>
-    <hyperlink ref="H37" r:id="rId89" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{AB51A48B-C357-491B-B18D-C139D34888C9}"/>
-    <hyperlink ref="H63" r:id="rId90" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{4AEEAECB-3376-4C9A-BF15-A0BEB40E0FF0}"/>
-    <hyperlink ref="H65" r:id="rId91" display="https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F" xr:uid="{FE266FE2-020D-4E24-800C-E60E1AF024E3}"/>
-    <hyperlink ref="H93" r:id="rId92" display="https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F" xr:uid="{7DD285FC-0E36-410D-B739-FB3A3D8AE4AE}"/>
-    <hyperlink ref="H44" r:id="rId93" display="https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F" xr:uid="{B717B2B0-A758-431C-97D8-FF0846A90C11}"/>
-    <hyperlink ref="H99" r:id="rId94" display="https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F" xr:uid="{3D9930CC-1C87-414D-90DB-8ED0043580A3}"/>
-    <hyperlink ref="H62" r:id="rId95" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{BB6BB3FB-5977-450F-A8BD-BDECCFE49FBC}"/>
-    <hyperlink ref="H25" r:id="rId96" display="https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F" xr:uid="{6583C3F5-5AFB-4EF7-B815-EE4AE9A6E913}"/>
-    <hyperlink ref="H38" r:id="rId97" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{947FD934-2C47-4BD4-B1C3-93317B884452}"/>
-    <hyperlink ref="H79" r:id="rId98" display="https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F" xr:uid="{7D11AB63-135B-41FA-A85C-DE4812B3A411}"/>
-    <hyperlink ref="H3" r:id="rId99" display="https://de.finance.yahoo.com/quote/MMM.F/profile?p=MMM.F" xr:uid="{524CE2E2-D051-4A34-B8A9-CACF93C52E0F}"/>
-    <hyperlink ref="H96" r:id="rId100" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{01665018-B95B-4AF4-B5AC-6CFC20511AC5}"/>
-    <hyperlink ref="H95" r:id="rId101" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{462D0A64-5DAC-4516-B5B0-84D01AB3F9D9}"/>
+    <hyperlink ref="H32" r:id="rId23" display="https://de.finance.yahoo.com/quote/CTH.F/profile?p=CTH.F" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="H27" r:id="rId24" display="https://de.finance.yahoo.com/quote/CXU.F/profile?p=CXU.F" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="H28" r:id="rId25" display="https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="H30" r:id="rId26" display="https://de.finance.yahoo.com/quote/CCC3.F/profile?p=CCC3.F" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="H31" r:id="rId27" display="https://de.finance.yahoo.com/quote/CPA.F/profile?p=CPA.F" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="H33" r:id="rId28" display="https://de.finance.yahoo.com/quote/^GDAXI/profile?p=^GDAXI" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="H34" r:id="rId29" display="https://de.finance.yahoo.com/quote/GUI.F/profile?p=GUI.F" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="H35" r:id="rId30" display="https://de.finance.yahoo.com/quote/7DB.F/profile?p=7DB.F" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="H36" r:id="rId31" display="https://de.finance.yahoo.com/quote/^DJI/profile?p=^DJI" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="H37" r:id="rId32" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="H40" r:id="rId33" display="https://de.finance.yahoo.com/quote/ESWB.F/profile?p=ESWB.F" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="H41" r:id="rId34" display="https://de.finance.yahoo.com/quote/FUC.F/profile?p=FUC.F" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="H42" r:id="rId35" display="https://de.finance.yahoo.com/quote/FPMB.F/profile?p=FPMB.F" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="H43" r:id="rId36" display="https://de.finance.yahoo.com/quote/NLM.F/profile?p=NLM.F" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="H44" r:id="rId37" display="https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="H46" r:id="rId38" display="https://de.finance.yahoo.com/quote/WWG.F/profile?p=WWG.F" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="H47" r:id="rId39" display="https://de.finance.yahoo.com/quote/8GM.F/profile?p=8GM.F" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="H48" r:id="rId40" display="https://de.finance.yahoo.com/quote/8GC.F/profile?p=8GC.F" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="H49" r:id="rId41" display="https://de.finance.yahoo.com/quote/GC=F/profile?p=GC=F" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="H50" r:id="rId42" display="https://de.finance.yahoo.com/quote/HLAG.F/profile?p=HLAG.F" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="H51" r:id="rId43" display="https://de.finance.yahoo.com/quote/HEI.F/profile?p=HEI.F" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="H52" r:id="rId44" display="https://de.finance.yahoo.com/quote/HNK1.F/profile?p=HNK1.F" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="H53" r:id="rId45" display="https://de.finance.yahoo.com/quote/H9I.F/profile?p=H9I.F" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="H54" r:id="rId46" display="https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="H56" r:id="rId47" display="https://de.finance.yahoo.com/quote/L0CK.F/profile?p=L0CK.F" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="H57" r:id="rId48" display="https://de.finance.yahoo.com/quote/2B78.F/profile?p=2B78.F" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="H58" r:id="rId49" display="https://de.finance.yahoo.com/quote/URTH/profile?p=URTH" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="H59" r:id="rId50" display="https://de.finance.yahoo.com/quote/IQQW.F/profile?p=IQQW.F" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="H60" r:id="rId51" display="https://de.finance.yahoo.com/quote/013A.F/profile?p=013A.F" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="H61" r:id="rId52" display="https://de.finance.yahoo.com/quote/JNJ.F/profile?p=JNJ.F" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="H62" r:id="rId53" display="https://de.finance.yahoo.com/quote/KU2.F/profile?p=KU2.F" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="H63" r:id="rId54" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="H66" r:id="rId55" display="https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="H68" r:id="rId56" display="https://de.finance.yahoo.com/quote/MSF.F/profile?p=MSF.F" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="H69" r:id="rId57" display="https://de.finance.yahoo.com/quote/98M.F/profile?p=98M.F" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="H70" r:id="rId58" display="https://de.finance.yahoo.com/quote/NESM.F/profile?p=NESM.F" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="H71" r:id="rId59" display="https://de.finance.yahoo.com/quote/FP3.F/profile?p=FP3.F" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="H72" r:id="rId60" display="https://de.finance.yahoo.com/quote/NNIC.F/profile?p=NNIC.F" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="H73" r:id="rId61" display="https://de.finance.yahoo.com/quote/NTH.F/profile?p=NTH.F" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="H74" r:id="rId62" display="https://de.finance.yahoo.com/quote/NOTA.F/profile?p=NOTA.F" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="H75" r:id="rId63" display="https://de.finance.yahoo.com/quote/NOVC.F/profile?p=NOVC.F" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="H76" r:id="rId64" display="https://de.finance.yahoo.com/quote/NVD.F/profile?p=NVD.F" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="H77" r:id="rId65" display="https://de.finance.yahoo.com/quote/PER.F/profile?p=PER.F" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="H78" r:id="rId66" display="https://de.finance.yahoo.com/quote/PFE.F/profile?p=PFE.F" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="H79" r:id="rId67" display="https://de.finance.yahoo.com/quote/PRG.F/profile?p=PRG.F" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="H80" r:id="rId68" display="https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="H82" r:id="rId69" display="https://de.finance.yahoo.com/quote/RY4C.F/profile?p=RY4C.F" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="H83" r:id="rId70" display="https://de.finance.yahoo.com/quote/SAP.F/profile?p=SAP.F" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="H87" r:id="rId71" display="https://de.finance.yahoo.com/quote/SI=F/profile?p=SI=F" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="H84" r:id="rId72" display="https://de.finance.yahoo.com/quote/YSN.F/profile?p=YSN.F" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="H85" r:id="rId73" display="https://de.finance.yahoo.com/quote/4S0.F/profile?p=4S0.F" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="H88" r:id="rId74" display="https://de.finance.yahoo.com/quote/SKNB.F/profile?p=SKNB.F" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="H86" r:id="rId75" display="https://de.finance.yahoo.com/quote/R6C.F/profile?p=R6C.F" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="H89" r:id="rId76" display="https://de.finance.yahoo.com/quote/AWM.F/profile?p=AWM.F" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="H90" r:id="rId77" display="https://de.finance.yahoo.com/quote/T5W.F/profile?p=T5W.F" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="H91" r:id="rId78" display="https://de.finance.yahoo.com/quote/NNND.F/profile?p=NNND.F" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="H92" r:id="rId79" display="https://de.finance.yahoo.com/quote/TL0.F/profile?p=TL0.F" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="H93" r:id="rId80" display="https://de.finance.yahoo.com/quote/TF7A.F/profile?p=TF7A.F" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="H94" r:id="rId81" display="https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="H96" r:id="rId82" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="H99" r:id="rId83" display="https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="H102" r:id="rId84" display="https://de.finance.yahoo.com/quote/WDP.F/profile?p=WDP.F" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="H103" r:id="rId85" display="https://de.finance.yahoo.com/quote/1WF.F/profile?p=1WF.F" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="H104" r:id="rId86" display="https://de.finance.yahoo.com/quote/WDI.F/profile?p=WDI.F" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="H100" r:id="rId87" display="https://de.finance.yahoo.com/quote/VOW3.F/profile?p=VOW3.F" xr:uid="{00000000-0004-0000-0000-000056000000}"/>
+    <hyperlink ref="H29" r:id="rId88" display="https://de.finance.yahoo.com/quote/CTX.F/profile?p=CTX.F" xr:uid="{B93CD419-7850-4245-919C-1A4A4B890609}"/>
+    <hyperlink ref="H38" r:id="rId89" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{AB51A48B-C357-491B-B18D-C139D34888C9}"/>
+    <hyperlink ref="H65" r:id="rId90" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{4AEEAECB-3376-4C9A-BF15-A0BEB40E0FF0}"/>
+    <hyperlink ref="H67" r:id="rId91" display="https://de.finance.yahoo.com/quote/M4i.F/profile?p=M4i.F" xr:uid="{FE266FE2-020D-4E24-800C-E60E1AF024E3}"/>
+    <hyperlink ref="H95" r:id="rId92" display="https://de.finance.yahoo.com/quote/UNVB.F/profile?p=UNVB.F" xr:uid="{7DD285FC-0E36-410D-B739-FB3A3D8AE4AE}"/>
+    <hyperlink ref="H45" r:id="rId93" display="https://de.finance.yahoo.com/quote/39EA.F/profile?p=39EA.F" xr:uid="{B717B2B0-A758-431C-97D8-FF0846A90C11}"/>
+    <hyperlink ref="H101" r:id="rId94" display="https://de.finance.yahoo.com/quote/3V64.F/profile?p=3V64.F" xr:uid="{3D9930CC-1C87-414D-90DB-8ED0043580A3}"/>
+    <hyperlink ref="H64" r:id="rId95" display="https://de.finance.yahoo.com/quote/LGLG.F/profile?p=LGLG.F" xr:uid="{BB6BB3FB-5977-450F-A8BD-BDECCFE49FBC}"/>
+    <hyperlink ref="H39" r:id="rId96" display="https://de.finance.yahoo.com/quote/HNL.F/profile?p=HNL.F" xr:uid="{947FD934-2C47-4BD4-B1C3-93317B884452}"/>
+    <hyperlink ref="H81" r:id="rId97" display="https://de.finance.yahoo.com/quote/RHO6.F/profile?p=RHO6.F" xr:uid="{7D11AB63-135B-41FA-A85C-DE4812B3A411}"/>
+    <hyperlink ref="H3" r:id="rId98" display="https://de.finance.yahoo.com/quote/MMM.F/profile?p=MMM.F" xr:uid="{524CE2E2-D051-4A34-B8A9-CACF93C52E0F}"/>
+    <hyperlink ref="H98" r:id="rId99" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{01665018-B95B-4AF4-B5AC-6CFC20511AC5}"/>
+    <hyperlink ref="H97" r:id="rId100" display="https://de.finance.yahoo.com/quote/CVLC.F/profile?p=CVLC.F" xr:uid="{462D0A64-5DAC-4516-B5B0-84D01AB3F9D9}"/>
+    <hyperlink ref="H26" r:id="rId101" display="https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F" xr:uid="{6583C3F5-5AFB-4EF7-B815-EE4AE9A6E913}"/>
+    <hyperlink ref="H25" r:id="rId102" display="https://de.finance.yahoo.com/quote/BRM.F/profile?p=BRM.F" xr:uid="{64E211CD-D69E-432E-AE50-2919E4C65E37}"/>
+    <hyperlink ref="H55" r:id="rId103" display="https://de.finance.yahoo.com/quote/IUI1.F/profile?p=IUI1.F" xr:uid="{6C39749C-0AE8-4E03-88F9-C1397ABEFBDD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740200000000005" bottom="0.78740200000000005" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId102"/>
+  <pageSetup orientation="portrait" r:id="rId104"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/data/stock_symbols.xlsx
+++ b/data/stock_symbols.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\projects\my_stock_data\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C341BED4-C084-474E-BF4A-A78B3871A755}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0596021F-3E69-48CD-B7FF-C8FFF48C6972}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2454,7 +2454,7 @@
   <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49:XFD49"/>
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.81640625" defaultRowHeight="14.5" customHeight="1" x14ac:dyDescent="0.35"/>
